--- a/src/test/java/TestData/UserDetails.xlsx
+++ b/src/test/java/TestData/UserDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nites\IdeaProjects\WeeklyTest16Sept\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C93D37C-C209-4A71-A213-85665206F833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE99C06A-5758-4886-93ED-7432B0F2EFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2AB1643-3A77-478B-A5D0-32A35C90133B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -65,7 +65,10 @@
     <t>qwertyuiop</t>
   </si>
   <si>
-    <t>fdjkshluff7vds@gmail.com</t>
+    <t>PR 2</t>
+  </si>
+  <si>
+    <t>fdjks789s@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E5F84A-2381-42B2-A37D-114409D69FBF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -462,7 +465,7 @@
     <col min="1" max="16384" width="27.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,8 +484,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -490,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -502,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -510,7 +516,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -518,7 +524,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -526,7 +532,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -534,7 +540,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -542,7 +548,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -550,7 +556,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
